--- a/models/seq2edit-based-CGEC/word_dict.xlsx
+++ b/models/seq2edit-based-CGEC/word_dict.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syr\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE962835-2F0E-4E7E-9782-52E71CAE8C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5977" yWindow="248" windowWidth="14401" windowHeight="7372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,11 +17,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="263">
   <si>
     <t>错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>审计员人</t>
@@ -45,7 +35,6 @@
   </si>
   <si>
     <t>粽叶飘香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>占为已有</t>
@@ -96,10 +85,6 @@
     <t>建设进程的加快</t>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国家审计署</t>
   </si>
   <si>
@@ -125,7 +110,6 @@
   </si>
   <si>
     <t>仅在词语前无“全面”时才更正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>违法不纠</t>
@@ -824,39 +808,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -864,13 +845,11 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -878,18 +857,167 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,8 +1030,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -911,44 +1225,330 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -997,7 +1597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1032,7 +1632,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1206,26 +1806,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,100 +1832,100 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1335,7 +1934,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1344,7 +1943,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1353,7 +1952,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1364,7 +1963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1372,7 +1971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1380,7 +1979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -1388,7 +1987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1396,7 +1995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -1404,7 +2003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1412,7 +2011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -1420,7 +2019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1428,7 +2027,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -1436,7 +2035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1444,7 +2043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -1452,7 +2051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
@@ -1460,7 +2059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -1468,7 +2067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -1476,7 +2075,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
@@ -1484,7 +2083,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -1492,7 +2091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
         <v>64</v>
       </c>
@@ -1500,7 +2099,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
@@ -1508,7 +2107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -1516,7 +2115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
@@ -1524,7 +2123,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
@@ -1532,7 +2131,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
@@ -1540,7 +2139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
@@ -1548,7 +2147,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
@@ -1556,7 +2155,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
         <v>80</v>
       </c>
@@ -1564,7 +2163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
         <v>82</v>
       </c>
@@ -1572,7 +2171,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
@@ -1580,7 +2179,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
         <v>86</v>
       </c>
@@ -1588,7 +2187,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
         <v>88</v>
       </c>
@@ -1596,7 +2195,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
         <v>90</v>
       </c>
@@ -1604,7 +2203,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
         <v>92</v>
       </c>
@@ -1612,7 +2211,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
         <v>94</v>
       </c>
@@ -1620,7 +2219,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
         <v>96</v>
       </c>
@@ -1628,7 +2227,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
         <v>98</v>
       </c>
@@ -1636,7 +2235,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
         <v>100</v>
       </c>
@@ -1644,7 +2243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
         <v>102</v>
       </c>
@@ -1652,7 +2251,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
         <v>104</v>
       </c>
@@ -1660,7 +2259,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
         <v>106</v>
       </c>
@@ -1668,7 +2267,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
         <v>108</v>
       </c>
@@ -1676,7 +2275,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
         <v>110</v>
       </c>
@@ -1684,7 +2283,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
         <v>112</v>
       </c>
@@ -1692,7 +2291,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
         <v>114</v>
       </c>
@@ -1700,7 +2299,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
         <v>116</v>
       </c>
@@ -1708,7 +2307,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2">
       <c r="A59" s="6" t="s">
         <v>118</v>
       </c>
@@ -1716,7 +2315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
         <v>120</v>
       </c>
@@ -1724,7 +2323,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
         <v>122</v>
       </c>
@@ -1732,7 +2331,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
         <v>124</v>
       </c>
@@ -1740,7 +2339,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
         <v>126</v>
       </c>
@@ -1748,7 +2347,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
         <v>128</v>
       </c>
@@ -1756,7 +2355,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
         <v>130</v>
       </c>
@@ -1764,7 +2363,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
         <v>132</v>
       </c>
@@ -1772,7 +2371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
         <v>134</v>
       </c>
@@ -1780,7 +2379,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2">
       <c r="A68" s="8" t="s">
         <v>136</v>
       </c>
@@ -1788,7 +2387,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
         <v>138</v>
       </c>
@@ -1796,7 +2395,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
         <v>140</v>
       </c>
@@ -1804,7 +2403,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
         <v>142</v>
       </c>
@@ -1812,7 +2411,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
         <v>144</v>
       </c>
@@ -1820,7 +2419,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
         <v>146</v>
       </c>
@@ -1828,7 +2427,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
         <v>148</v>
       </c>
@@ -1836,7 +2435,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2">
       <c r="A75" s="9" t="s">
         <v>150</v>
       </c>
@@ -1844,7 +2443,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
         <v>152</v>
       </c>
@@ -1852,7 +2451,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2">
       <c r="A77" s="8" t="s">
         <v>154</v>
       </c>
@@ -1860,7 +2459,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
         <v>156</v>
       </c>
@@ -1868,7 +2467,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
         <v>158</v>
       </c>
@@ -1876,7 +2475,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
         <v>160</v>
       </c>
@@ -1884,7 +2483,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
         <v>162</v>
       </c>
@@ -1892,7 +2491,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2">
       <c r="A82" s="5" t="s">
         <v>164</v>
       </c>
@@ -1900,7 +2499,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2">
       <c r="A83" s="5" t="s">
         <v>166</v>
       </c>
@@ -1908,7 +2507,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2">
       <c r="A84" s="5" t="s">
         <v>168</v>
       </c>
@@ -1916,7 +2515,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2">
       <c r="A85" s="9" t="s">
         <v>170</v>
       </c>
@@ -1924,7 +2523,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2">
       <c r="A86" s="5" t="s">
         <v>172</v>
       </c>
@@ -1932,7 +2531,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2">
       <c r="A87" s="5" t="s">
         <v>174</v>
       </c>
@@ -1940,7 +2539,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2">
       <c r="A88" s="8" t="s">
         <v>176</v>
       </c>
@@ -1948,7 +2547,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2">
       <c r="A89" s="5" t="s">
         <v>178</v>
       </c>
@@ -1956,7 +2555,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2">
       <c r="A90" s="5" t="s">
         <v>180</v>
       </c>
@@ -1964,7 +2563,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2">
       <c r="A91" s="5" t="s">
         <v>182</v>
       </c>
@@ -1972,7 +2571,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2">
       <c r="A92" s="5" t="s">
         <v>184</v>
       </c>
@@ -1980,7 +2579,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2">
       <c r="A93" s="5" t="s">
         <v>186</v>
       </c>
@@ -1988,7 +2587,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2">
       <c r="A94" s="5" t="s">
         <v>188</v>
       </c>
@@ -1996,7 +2595,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2">
       <c r="A95" s="5" t="s">
         <v>190</v>
       </c>
@@ -2004,7 +2603,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
         <v>192</v>
       </c>
@@ -2012,7 +2611,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
         <v>194</v>
       </c>
@@ -2020,7 +2619,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
         <v>196</v>
       </c>
@@ -2028,7 +2627,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
         <v>198</v>
       </c>
@@ -2036,7 +2635,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
         <v>200</v>
       </c>
@@ -2044,7 +2643,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
         <v>38</v>
       </c>
@@ -2052,7 +2651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
         <v>202</v>
       </c>
@@ -2060,7 +2659,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
         <v>204</v>
       </c>
@@ -2068,7 +2667,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
         <v>206</v>
       </c>
@@ -2076,7 +2675,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2">
       <c r="A105" s="5" t="s">
         <v>208</v>
       </c>
@@ -2084,7 +2683,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
         <v>210</v>
       </c>
@@ -2092,7 +2691,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2">
       <c r="A107" s="5" t="s">
         <v>212</v>
       </c>
@@ -2100,7 +2699,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2">
       <c r="A108" s="5" t="s">
         <v>214</v>
       </c>
@@ -2108,7 +2707,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
         <v>216</v>
       </c>
@@ -2116,7 +2715,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2">
       <c r="A110" s="5" t="s">
         <v>218</v>
       </c>
@@ -2124,7 +2723,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
         <v>220</v>
       </c>
@@ -2132,7 +2731,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2">
       <c r="A112" s="5" t="s">
         <v>222</v>
       </c>
@@ -2140,7 +2739,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2">
       <c r="A113" s="5" t="s">
         <v>223</v>
       </c>
@@ -2148,7 +2747,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2">
       <c r="A114" s="5" t="s">
         <v>225</v>
       </c>
@@ -2156,7 +2755,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2">
       <c r="A115" s="5" t="s">
         <v>164</v>
       </c>
@@ -2164,7 +2763,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2">
       <c r="A116" s="5" t="s">
         <v>227</v>
       </c>
@@ -2172,7 +2771,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2">
       <c r="A117" s="5" t="s">
         <v>229</v>
       </c>
@@ -2180,7 +2779,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
         <v>231</v>
       </c>
@@ -2188,7 +2787,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2">
       <c r="A119" s="5" t="s">
         <v>233</v>
       </c>
@@ -2196,7 +2795,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2">
       <c r="A120" s="5" t="s">
         <v>235</v>
       </c>
@@ -2204,7 +2803,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2">
       <c r="A121" s="5" t="s">
         <v>237</v>
       </c>
@@ -2212,7 +2811,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2">
       <c r="A122" s="5" t="s">
         <v>62</v>
       </c>
@@ -2220,7 +2819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2">
       <c r="A123" s="2" t="s">
         <v>239</v>
       </c>
@@ -2228,7 +2827,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2">
       <c r="A124" s="2" t="s">
         <v>241</v>
       </c>
@@ -2236,7 +2835,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2">
       <c r="A125" s="2" t="s">
         <v>243</v>
       </c>
@@ -2244,7 +2843,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2">
       <c r="A126" s="2" t="s">
         <v>245</v>
       </c>
@@ -2252,7 +2851,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2">
       <c r="A127" s="2" t="s">
         <v>247</v>
       </c>
@@ -2260,7 +2859,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2">
       <c r="A128" s="2" t="s">
         <v>249</v>
       </c>
@@ -2268,7 +2867,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2">
       <c r="A129" s="2" t="s">
         <v>251</v>
       </c>
@@ -2276,7 +2875,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
         <v>253</v>
       </c>
@@ -2284,7 +2883,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2">
       <c r="A131" s="10" t="s">
         <v>255</v>
       </c>
@@ -2292,7 +2891,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2">
       <c r="A132" s="2" t="s">
         <v>257</v>
       </c>
@@ -2300,7 +2899,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2">
       <c r="A133" s="2" t="s">
         <v>259</v>
       </c>
@@ -2308,7 +2907,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2">
       <c r="A134" s="2" t="s">
         <v>261</v>
       </c>
@@ -2317,8 +2916,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>